--- a/Emelya/P3.xlsx
+++ b/Emelya/P3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="24">
   <si>
     <t>Preparat</t>
   </si>
@@ -63,6 +63,9 @@
     <t>CT3-13</t>
   </si>
   <si>
+    <t>JI</t>
+  </si>
+  <si>
     <t>CT3-14</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
   </si>
   <si>
     <t>Оений</t>
-  </si>
-  <si>
-    <t>JI</t>
   </si>
   <si>
     <t>ПР1</t>
@@ -269,6 +269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,12 +384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +584,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,16 +608,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -626,52 +626,52 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,9 +708,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1032,8 +1035,8 @@
   <sheetPr/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2394,10 +2397,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A245" sqref="$A245:$XFD364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2853,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -2868,7 +2871,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
@@ -2883,7 +2886,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -2898,7 +2901,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
@@ -2913,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -2928,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -2937,13 +2940,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -2952,13 +2955,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
@@ -2967,13 +2970,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
@@ -2982,13 +2985,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -2997,133 +3000,133 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>1.198</v>
+        <v>1.924</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>1.924</v>
+        <v>1.639</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
-        <v>1.639</v>
+        <v>2.398</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>2.398</v>
+        <v>2.199</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
-        <v>2.199</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>2.036</v>
+        <v>2.293</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1">
-        <v>2.293</v>
+        <v>1.975</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -3132,388 +3135,388 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
-        <v>2.075</v>
+        <v>2.282</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>2.282</v>
+        <v>2.149</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>2.149</v>
+        <v>2.262</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
-        <v>2.262</v>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>2.008</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>2.008</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <v>2.11</v>
+        <v>2.205</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
-        <v>2.205</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>2.45</v>
+        <v>2.099</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <v>2.099</v>
+        <v>2.073</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
-        <v>2.073</v>
+        <v>2.248</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1">
-        <v>2.248</v>
+        <v>1.974</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
-        <v>1.974</v>
+        <v>2.155</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1">
-        <v>2.155</v>
+        <v>2.151</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1">
-        <v>2.151</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
-        <v>1.951</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
-        <v>2.18</v>
+        <v>2.099</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
-        <v>2.099</v>
+        <v>2.323</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
-        <v>2.323</v>
+        <v>2.006</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1">
-        <v>2.006</v>
+        <v>2.273</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1">
-        <v>2.273</v>
+        <v>2.075</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
-        <v>2.075</v>
+        <v>2.273</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1">
-        <v>2.273</v>
+        <v>2.126</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1">
-        <v>2.126</v>
+        <v>1.501</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
-        <v>1.501</v>
+        <v>1.899</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
-        <v>1.899</v>
+        <v>1.765</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
@@ -3522,727 +3525,727 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1">
-        <v>1.765</v>
+        <v>2.248</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
-        <v>1.899</v>
+        <v>2.173</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
-        <v>2.248</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
-        <v>2.173</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1">
-        <v>2.33</v>
+        <v>2.202</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1">
-        <v>1.89</v>
+        <v>2.273</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1">
-        <v>2.202</v>
+        <v>2.049</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1">
-        <v>2.273</v>
+        <v>2.123</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1">
-        <v>2.049</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1">
-        <v>2.123</v>
+        <v>2.175</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>2.45</v>
+        <v>1.878</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>2.175</v>
+        <v>2.432</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>1.878</v>
+        <v>2.181</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <v>2.432</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1">
-        <v>2.181</v>
+        <v>2.319</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1">
-        <v>2.22</v>
+        <v>2.607</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1">
-        <v>2.319</v>
+        <v>2.034</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
-        <v>2.607</v>
+        <v>1.995</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
-        <v>2.034</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1">
-        <v>1.995</v>
+        <v>2.362</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
-        <v>1.728</v>
+        <v>2.364</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
-        <v>2.362</v>
+        <v>2.031</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
-        <v>2.364</v>
+        <v>2.084</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
-        <v>2.031</v>
+        <v>2.558</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
-        <v>2.084</v>
+        <v>2.147</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
-        <v>2.558</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
-        <v>2.147</v>
+        <v>2.185</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1">
-        <v>1.91</v>
+        <v>2.027</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1">
-        <v>2.185</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
-        <v>2.027</v>
+        <v>2.373</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
-        <v>2.98</v>
+        <v>2.165</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
-        <v>2.373</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
-        <v>2.165</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
-        <v>2.12</v>
+        <v>2.459</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
-        <v>2.39</v>
+        <v>2.335</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1">
-        <v>2.459</v>
+        <v>2.066</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1">
-        <v>2.335</v>
+        <v>2.186</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1">
-        <v>2.066</v>
+        <v>2.326</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1">
-        <v>2.186</v>
+        <v>2.251</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1">
-        <v>2.326</v>
+        <v>2.591</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1">
-        <v>2.251</v>
+        <v>2.651</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1">
-        <v>2.591</v>
+        <v>2.267</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1">
-        <v>2.651</v>
+        <v>2.048</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1">
-        <v>2.267</v>
+        <v>2.474</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1">
-        <v>2.048</v>
+        <v>2.093</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1">
-        <v>2.474</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
-        <v>2.093</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1">
-        <v>1.951</v>
+        <v>1.195</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
@@ -4252,12 +4255,12 @@
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1">
-        <v>0.963</v>
+        <v>1.098</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
@@ -4267,12 +4270,12 @@
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1">
-        <v>1.195</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
@@ -4282,12 +4285,12 @@
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1">
-        <v>1.098</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
@@ -4297,12 +4300,12 @@
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1">
-        <v>1.098</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>6</v>
@@ -4312,12 +4315,12 @@
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1">
-        <v>1.171</v>
+        <v>1.074</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>6</v>
@@ -4327,12 +4330,12 @@
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1">
-        <v>0.854</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>6</v>
@@ -4342,12 +4345,12 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1">
-        <v>1.026</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>6</v>
@@ -4357,12 +4360,12 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1">
-        <v>1.074</v>
+        <v>1.084</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
@@ -4372,12 +4375,12 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1">
-        <v>1.013</v>
+        <v>1.061</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
@@ -4387,12 +4390,12 @@
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1">
-        <v>1.171</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
@@ -4402,12 +4405,12 @@
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1">
-        <v>1.084</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>6</v>
@@ -4417,12 +4420,12 @@
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1">
-        <v>1.061</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>6</v>
@@ -4432,12 +4435,12 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1">
-        <v>1.123</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>6</v>
@@ -4447,12 +4450,12 @@
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1">
-        <v>0.927</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>6</v>
@@ -4462,12 +4465,12 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1">
-        <v>0.879</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>6</v>
@@ -4477,12 +4480,12 @@
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1">
-        <v>0.793</v>
+        <v>1.209</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>6</v>
@@ -4492,12 +4495,12 @@
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1">
-        <v>1.073</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>6</v>
@@ -4507,12 +4510,12 @@
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1">
-        <v>1.085</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>6</v>
@@ -4522,12 +4525,12 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1">
-        <v>1.209</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>6</v>
@@ -4537,12 +4540,12 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1">
-        <v>1.05</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>6</v>
@@ -4552,12 +4555,12 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1">
-        <v>1.15</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>6</v>
@@ -4567,12 +4570,12 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1">
-        <v>1.09</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>6</v>
@@ -4582,12 +4585,12 @@
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1">
-        <v>1.111</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>6</v>
@@ -4597,12 +4600,12 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1">
-        <v>0.878</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>6</v>
@@ -4612,12 +4615,12 @@
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1">
-        <v>1.256</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>6</v>
@@ -4627,12 +4630,12 @@
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1">
-        <v>1.036</v>
+        <v>1.074</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>6</v>
@@ -4642,12 +4645,12 @@
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1">
-        <v>0.988</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>6</v>
@@ -4657,12 +4660,12 @@
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1">
-        <v>1.001</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>6</v>
@@ -4672,12 +4675,12 @@
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1">
-        <v>1.074</v>
+        <v>1.053</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>6</v>
@@ -4687,12 +4690,12 @@
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1">
-        <v>1.024</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>6</v>
@@ -4702,12 +4705,12 @@
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1">
-        <v>1.13</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>6</v>
@@ -4717,12 +4720,12 @@
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1">
-        <v>1.053</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>6</v>
@@ -4732,12 +4735,12 @@
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1">
-        <v>1.122</v>
+        <v>1.045</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>6</v>
@@ -4747,12 +4750,12 @@
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1">
-        <v>1.219</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>6</v>
@@ -4762,12 +4765,12 @@
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>6</v>
@@ -4777,12 +4780,12 @@
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1">
-        <v>1.045</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>6</v>
@@ -4792,12 +4795,12 @@
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1">
-        <v>1.012</v>
+        <v>1.296</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>6</v>
@@ -4807,12 +4810,12 @@
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1">
-        <v>1.111</v>
+        <v>1.195</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>6</v>
@@ -4822,12 +4825,12 @@
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1">
-        <v>1.073</v>
+        <v>1.062</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>6</v>
@@ -4837,12 +4840,12 @@
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1">
-        <v>1.296</v>
+        <v>1.295</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>6</v>
@@ -4852,12 +4855,12 @@
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1">
-        <v>1.195</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>6</v>
@@ -4867,12 +4870,12 @@
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1">
-        <v>1.062</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>6</v>
@@ -4882,423 +4885,423 @@
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1">
-        <v>1.295</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1">
-        <v>1.244</v>
+        <v>2.536</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1">
-        <v>1.085</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1">
-        <v>1.148</v>
+        <v>2.089</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1">
-        <v>2.536</v>
+        <v>2.202</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1">
-        <v>2.35</v>
+        <v>2.066</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1">
-        <v>2.089</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1">
-        <v>2.202</v>
+        <v>2.159</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1">
-        <v>2.066</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1">
-        <v>2.176</v>
+        <v>2.007</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1">
-        <v>2.159</v>
+        <v>2.146</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1">
-        <v>2.007</v>
+        <v>2.311</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1">
-        <v>2.146</v>
+        <v>2.357</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1">
-        <v>2.311</v>
+        <v>1.995</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1">
-        <v>2.357</v>
+        <v>2.543</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1">
-        <v>1.955</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1">
-        <v>2.543</v>
+        <v>2.103</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1">
-        <v>2.09</v>
+        <v>2.207</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1">
-        <v>2.103</v>
+        <v>2.312</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1">
-        <v>2.207</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1">
-        <v>2.312</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1">
-        <v>2.19</v>
+        <v>2.146</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1">
-        <v>1.657</v>
+        <v>2.217</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1">
-        <v>2.146</v>
+        <v>2.383</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1">
-        <v>2.217</v>
+        <v>3.304</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1">
-        <v>3.383</v>
+        <v>1.733</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1">
-        <v>3.304</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D193" s="1"/>
-      <c r="E193" s="1">
-        <v>1.733</v>
+      <c r="E193">
+        <v>1.951</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1">
@@ -5307,13 +5310,13 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1">
@@ -5322,13 +5325,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1">
@@ -5337,13 +5340,13 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1">
@@ -5352,13 +5355,13 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1">
@@ -5367,13 +5370,13 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1">
@@ -5382,13 +5385,13 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1">
@@ -5397,13 +5400,13 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1">
@@ -5412,13 +5415,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1">
@@ -5427,2461 +5430,2423 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1">
-        <v>1.736</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1">
-        <v>2.07</v>
+        <v>1.551</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1">
-        <v>1.631</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1">
-        <v>1.854</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1">
-        <v>1.765</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1">
-        <v>1.444</v>
+        <v>1.685</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1">
-        <v>1.551</v>
+        <v>1.524</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1">
-        <v>1.66</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1">
-        <v>1.492</v>
+        <v>1.765</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1">
-        <v>1.901</v>
+        <v>2.212</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1">
-        <v>1.685</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1">
-        <v>1.524</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1">
-        <v>1.698</v>
+        <v>1.711</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1">
-        <v>1.765</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1">
-        <v>2.212</v>
+        <v>1.618</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1">
-        <v>1.792</v>
+        <v>2.602</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1">
-        <v>1.626</v>
+        <v>1.659</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1">
-        <v>1.711</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1">
-        <v>1.775</v>
+        <v>1.602</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1">
-        <v>1.618</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1">
-        <v>2.602</v>
+        <v>2.533</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1">
-        <v>1.602</v>
+        <v>2.529</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1">
-        <v>1.712</v>
+        <v>1.859</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1">
-        <v>1.602</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1">
-        <v>1.591</v>
+        <v>1.835</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1">
-        <v>2.533</v>
+        <v>2.036</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1">
-        <v>2.529</v>
+        <v>1.725</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1">
-        <v>1.859</v>
+        <v>1.651</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1">
-        <v>1.698</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1">
-        <v>1.835</v>
+        <v>1.727</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1">
-        <v>2.036</v>
+        <v>1.421</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1">
-        <v>1.725</v>
+        <v>1.659</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1">
-        <v>1.651</v>
+        <v>1.872</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1">
-        <v>1.575</v>
+        <v>1.771</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1">
-        <v>1.727</v>
+        <v>1.674</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1">
-        <v>1.421</v>
+        <v>1.765</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1">
-        <v>1.659</v>
+        <v>1.832</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D240" s="1"/>
-      <c r="E240" s="1">
-        <v>1.872</v>
+      <c r="E240">
+        <v>1.765</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1">
-        <v>1.771</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1">
-        <v>1.674</v>
+        <v>1.685</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1">
+        <v>1.759</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" s="2" customFormat="1" spans="1:5">
+      <c r="A245" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4">
+        <v>1.816</v>
+      </c>
+    </row>
+    <row r="246" s="2" customFormat="1" spans="1:5">
+      <c r="A246" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4">
+        <v>2.148</v>
+      </c>
+    </row>
+    <row r="247" s="2" customFormat="1" spans="1:5">
+      <c r="A247" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4">
+        <v>1.543</v>
+      </c>
+    </row>
+    <row r="248" s="2" customFormat="1" spans="1:5">
+      <c r="A248" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4">
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="249" s="2" customFormat="1" spans="1:5">
+      <c r="A249" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4">
+        <v>1.908</v>
+      </c>
+    </row>
+    <row r="250" s="2" customFormat="1" spans="1:5">
+      <c r="A250" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4">
+        <v>2.047</v>
+      </c>
+    </row>
+    <row r="251" s="2" customFormat="1" spans="1:5">
+      <c r="A251" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4">
+        <v>3.624</v>
+      </c>
+    </row>
+    <row r="252" s="2" customFormat="1" spans="1:5">
+      <c r="A252" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4">
+        <v>2.408</v>
+      </c>
+    </row>
+    <row r="253" s="2" customFormat="1" spans="1:5">
+      <c r="A253" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4">
+        <v>1.699</v>
+      </c>
+    </row>
+    <row r="254" s="2" customFormat="1" spans="1:5">
+      <c r="A254" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4">
+        <v>2.316</v>
+      </c>
+    </row>
+    <row r="255" s="2" customFormat="1" spans="1:5">
+      <c r="A255" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4">
+        <v>2.055</v>
+      </c>
+    </row>
+    <row r="256" s="2" customFormat="1" spans="1:5">
+      <c r="A256" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4">
+        <v>4.042</v>
+      </c>
+    </row>
+    <row r="257" s="2" customFormat="1" spans="1:5">
+      <c r="A257" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4">
+        <v>4.011</v>
+      </c>
+    </row>
+    <row r="258" s="2" customFormat="1" spans="1:5">
+      <c r="A258" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="259" s="2" customFormat="1" spans="1:5">
+      <c r="A259" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4">
+        <v>1.422</v>
+      </c>
+    </row>
+    <row r="260" s="2" customFormat="1" spans="1:5">
+      <c r="A260" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1" spans="1:5">
+      <c r="A261" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4">
+        <v>1.313</v>
+      </c>
+    </row>
+    <row r="262" s="2" customFormat="1" spans="1:5">
+      <c r="A262" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4">
+        <v>1.947</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="1" spans="1:5">
+      <c r="A263" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4">
+        <v>1.788</v>
+      </c>
+    </row>
+    <row r="264" s="2" customFormat="1" spans="1:5">
+      <c r="A264" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="265" s="2" customFormat="1" spans="1:5">
+      <c r="A265" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="266" s="2" customFormat="1" spans="1:5">
+      <c r="A266" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4">
+        <v>1.862</v>
+      </c>
+    </row>
+    <row r="267" s="2" customFormat="1" spans="1:5">
+      <c r="A267" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4">
+        <v>1.652</v>
+      </c>
+    </row>
+    <row r="268" s="2" customFormat="1" spans="1:5">
+      <c r="A268" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4">
+        <v>1.228</v>
+      </c>
+    </row>
+    <row r="269" s="2" customFormat="1" spans="1:5">
+      <c r="A269" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="270" s="2" customFormat="1" spans="1:5">
+      <c r="A270" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4">
+        <v>1.908</v>
+      </c>
+    </row>
+    <row r="271" s="2" customFormat="1" spans="1:5">
+      <c r="A271" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4">
+        <v>1.902</v>
+      </c>
+    </row>
+    <row r="272" s="2" customFormat="1" spans="1:5">
+      <c r="A272" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4">
+        <v>1.902</v>
+      </c>
+    </row>
+    <row r="273" s="2" customFormat="1" spans="1:5">
+      <c r="A273" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4">
+        <v>1.917</v>
+      </c>
+    </row>
+    <row r="274" s="2" customFormat="1" spans="1:5">
+      <c r="A274" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4">
+        <v>1.948</v>
+      </c>
+    </row>
+    <row r="275" s="2" customFormat="1" spans="1:5">
+      <c r="A275" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4">
+        <v>1.604</v>
+      </c>
+    </row>
+    <row r="276" s="2" customFormat="1" spans="1:5">
+      <c r="A276" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4">
+        <v>1.295</v>
+      </c>
+    </row>
+    <row r="277" s="2" customFormat="1" spans="1:5">
+      <c r="A277" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4">
+        <v>1.957</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="1" spans="1:5">
+      <c r="A278" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4">
+        <v>1.514</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="1" spans="1:5">
+      <c r="A279" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4">
+        <v>1.866</v>
+      </c>
+    </row>
+    <row r="280" s="2" customFormat="1" spans="1:5">
+      <c r="A280" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4">
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="281" s="2" customFormat="1" spans="1:5">
+      <c r="A281" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="282" s="2" customFormat="1" spans="1:5">
+      <c r="A282" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="283" s="2" customFormat="1" spans="1:5">
+      <c r="A283" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4">
+        <v>2.006</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="1" spans="1:5">
+      <c r="A284" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="1" spans="1:5">
+      <c r="A285" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4">
+        <v>1.906</v>
+      </c>
+    </row>
+    <row r="286" s="2" customFormat="1" spans="1:5">
+      <c r="A286" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4">
+        <v>1.838</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="1" spans="1:5">
+      <c r="A287" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="288" s="2" customFormat="1" spans="1:5">
+      <c r="A288" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4">
+        <v>2.065</v>
+      </c>
+    </row>
+    <row r="289" s="2" customFormat="1" spans="1:5">
+      <c r="A289" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4">
+        <v>3.582</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="1" spans="1:5">
+      <c r="A290" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="291" s="2" customFormat="1" spans="1:5">
+      <c r="A291" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4">
+        <v>4.228</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="1" spans="1:5">
+      <c r="A292" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4">
+        <v>4.362</v>
+      </c>
+    </row>
+    <row r="293" s="2" customFormat="1" spans="1:5">
+      <c r="A293" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4">
+        <v>3.422</v>
+      </c>
+    </row>
+    <row r="294" s="2" customFormat="1" spans="1:5">
+      <c r="A294" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4">
+        <v>3.854</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" spans="1:5">
+      <c r="A295" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" spans="1:5">
+      <c r="A296" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4">
+        <v>1.707</v>
+      </c>
+    </row>
+    <row r="297" s="2" customFormat="1" spans="1:5">
+      <c r="A297" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4">
+        <v>1.743</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:5">
+      <c r="A298" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4">
+        <v>1.521</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="1:5">
+      <c r="A299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4">
+        <v>1.912</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:5">
+      <c r="A300" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4">
+        <v>1.676</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="1:5">
+      <c r="A301" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4">
+        <v>1.703</v>
+      </c>
+    </row>
+    <row r="302" s="2" customFormat="1" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4">
+        <v>1.731</v>
+      </c>
+    </row>
+    <row r="303" s="2" customFormat="1" spans="1:5">
+      <c r="A303" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="304" s="2" customFormat="1" spans="1:5">
+      <c r="A304" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4">
+        <v>1.863</v>
+      </c>
+    </row>
+    <row r="305" s="2" customFormat="1" spans="1:5">
+      <c r="A305" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4">
+        <v>1.707</v>
+      </c>
+    </row>
+    <row r="306" s="2" customFormat="1" spans="1:5">
+      <c r="A306" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4">
+        <v>4.411</v>
+      </c>
+    </row>
+    <row r="307" s="2" customFormat="1" spans="1:5">
+      <c r="A307" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4">
+        <v>1.826</v>
+      </c>
+    </row>
+    <row r="308" s="2" customFormat="1" spans="1:5">
+      <c r="A308" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4">
+        <v>4.258</v>
+      </c>
+    </row>
+    <row r="309" s="2" customFormat="1" spans="1:5">
+      <c r="A309" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4">
+        <v>1.971</v>
+      </c>
+    </row>
+    <row r="310" s="2" customFormat="1" spans="1:5">
+      <c r="A310" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4">
         <v>1.765</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1">
-        <v>1.726</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1">
-        <v>1.685</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1">
-        <v>1.816</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1">
-        <v>2.148</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1">
-        <v>1.543</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1">
-        <v>1.764</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1">
-        <v>1.908</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1">
-        <v>2.047</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1">
-        <v>3.624</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1">
-        <v>2.408</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1">
-        <v>1.699</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1">
-        <v>2.316</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1">
-        <v>2.055</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1">
-        <v>4.042</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1">
-        <v>4.011</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1">
-        <v>1.422</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1">
+    <row r="311" s="2" customFormat="1" spans="1:5">
+      <c r="A311" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4">
+        <v>3.569</v>
+      </c>
+    </row>
+    <row r="312" s="2" customFormat="1" spans="1:5">
+      <c r="A312" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4">
+        <v>3.974</v>
+      </c>
+    </row>
+    <row r="313" s="2" customFormat="1" spans="1:5">
+      <c r="A313" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4">
+        <v>1.937</v>
+      </c>
+    </row>
+    <row r="314" s="2" customFormat="1" spans="1:5">
+      <c r="A314" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4">
+        <v>1.665</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="1" spans="1:5">
+      <c r="A315" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4">
+        <v>1.741</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" spans="1:5">
+      <c r="A316" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4">
+        <v>1.914</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" spans="1:5">
+      <c r="A317" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4">
+        <v>2.059</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" spans="1:5">
+      <c r="A318" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4">
+        <v>1.824</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" spans="1:5">
+      <c r="A319" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" spans="1:5">
+      <c r="A320" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4">
+        <v>1.708</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:5">
+      <c r="A321" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4">
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" spans="1:5">
+      <c r="A322" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4">
+        <v>1.833</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" spans="1:5">
+      <c r="A323" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" spans="1:5">
+      <c r="A324" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4">
         <v>1.627</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1">
-        <v>1.313</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1">
-        <v>1.947</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D265" s="1"/>
-      <c r="E265" s="1">
-        <v>1.788</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D266" s="1"/>
-      <c r="E266" s="1">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1">
-        <v>1.925</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1">
-        <v>1.862</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1">
-        <v>1.652</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1">
-        <v>1.228</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D271" s="1"/>
-      <c r="E271" s="1">
-        <v>1.905</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D272" s="1"/>
-      <c r="E272" s="1">
-        <v>1.908</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D273" s="1"/>
-      <c r="E273" s="1">
-        <v>1.902</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D274" s="1"/>
-      <c r="E274" s="1">
-        <v>1.902</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1">
-        <v>1.917</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1">
-        <v>1.948</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D277" s="1"/>
-      <c r="E277" s="1">
-        <v>1.604</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D278" s="1"/>
-      <c r="E278" s="1">
-        <v>1.295</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" s="1"/>
-      <c r="E279" s="1">
+    <row r="325" s="2" customFormat="1" spans="1:5">
+      <c r="A325" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="326" s="2" customFormat="1" spans="1:5">
+      <c r="A326" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4">
+        <v>1.686</v>
+      </c>
+    </row>
+    <row r="327" s="2" customFormat="1" spans="1:5">
+      <c r="A327" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4">
+        <v>1.892</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="1" spans="1:5">
+      <c r="A328" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4">
+        <v>1.433</v>
+      </c>
+    </row>
+    <row r="329" s="2" customFormat="1" spans="1:5">
+      <c r="A329" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4">
+        <v>1.755</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="1" spans="1:5">
+      <c r="A330" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4">
+        <v>2.417</v>
+      </c>
+    </row>
+    <row r="331" s="2" customFormat="1" spans="1:5">
+      <c r="A331" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4">
+        <v>1.887</v>
+      </c>
+    </row>
+    <row r="332" s="2" customFormat="1" spans="1:5">
+      <c r="A332" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4">
+        <v>1.789</v>
+      </c>
+    </row>
+    <row r="333" s="2" customFormat="1" spans="1:5">
+      <c r="A333" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="334" s="2" customFormat="1" spans="1:5">
+      <c r="A334" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4">
+        <v>2.045</v>
+      </c>
+    </row>
+    <row r="335" s="2" customFormat="1" spans="1:5">
+      <c r="A335" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4">
+        <v>1.753</v>
+      </c>
+    </row>
+    <row r="336" s="2" customFormat="1" spans="1:5">
+      <c r="A336" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4">
+        <v>1.791</v>
+      </c>
+    </row>
+    <row r="337" s="2" customFormat="1" spans="1:5">
+      <c r="A337" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4">
+        <v>1.784</v>
+      </c>
+    </row>
+    <row r="338" s="2" customFormat="1" spans="1:5">
+      <c r="A338" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="339" s="2" customFormat="1" spans="1:5">
+      <c r="A339" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4">
+        <v>1.864</v>
+      </c>
+    </row>
+    <row r="340" s="2" customFormat="1" spans="1:5">
+      <c r="A340" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4">
+        <v>2.045</v>
+      </c>
+    </row>
+    <row r="341" s="2" customFormat="1" spans="1:5">
+      <c r="A341" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4">
+        <v>2.039</v>
+      </c>
+    </row>
+    <row r="342" s="2" customFormat="1" spans="1:5">
+      <c r="A342" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4">
+        <v>3.783</v>
+      </c>
+    </row>
+    <row r="343" s="2" customFormat="1" spans="1:5">
+      <c r="A343" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4">
+        <v>1.368</v>
+      </c>
+    </row>
+    <row r="344" s="2" customFormat="1" spans="1:5">
+      <c r="A344" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4">
+        <v>3.853</v>
+      </c>
+    </row>
+    <row r="345" s="2" customFormat="1" spans="1:5">
+      <c r="A345" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4">
+        <v>1.884</v>
+      </c>
+    </row>
+    <row r="346" s="2" customFormat="1" spans="1:5">
+      <c r="A346" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="347" s="2" customFormat="1" spans="1:5">
+      <c r="A347" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4">
+        <v>1.459</v>
+      </c>
+    </row>
+    <row r="348" s="2" customFormat="1" spans="1:5">
+      <c r="A348" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4">
+        <v>3.772</v>
+      </c>
+    </row>
+    <row r="349" s="2" customFormat="1" spans="1:5">
+      <c r="A349" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4">
         <v>1.957</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" s="1"/>
-      <c r="E280" s="1">
-        <v>1.514</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" s="1"/>
-      <c r="E281" s="1">
-        <v>1.866</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1">
-        <v>1.528</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" s="1"/>
-      <c r="E283" s="1">
-        <v>1.133</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D284" s="1"/>
-      <c r="E284" s="1">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1">
+    <row r="350" s="2" customFormat="1" spans="1:5">
+      <c r="A350" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4">
+        <v>2.018</v>
+      </c>
+    </row>
+    <row r="351" s="2" customFormat="1" spans="1:5">
+      <c r="A351" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4">
         <v>2.006</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1">
-        <v>1.906</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D288" s="1"/>
-      <c r="E288" s="1">
-        <v>1.838</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1">
-        <v>1.929</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1">
-        <v>2.065</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1">
-        <v>3.582</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D292" s="1"/>
-      <c r="E292" s="1">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="1"/>
-      <c r="E293" s="1">
-        <v>4.228</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1">
-        <v>4.362</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1">
-        <v>3.422</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1">
-        <v>3.854</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1">
-        <v>1.707</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1">
-        <v>1.743</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1">
-        <v>1.521</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1">
-        <v>1.912</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1">
-        <v>1.676</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1">
-        <v>1.703</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D304" s="1"/>
-      <c r="E304" s="1">
-        <v>1.731</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1">
-        <v>1.863</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1">
-        <v>1.707</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D308" s="1"/>
-      <c r="E308" s="1">
-        <v>4.411</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1">
-        <v>1.826</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1">
-        <v>4.258</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D311" s="1"/>
-      <c r="E311" s="1">
-        <v>1.971</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1">
-        <v>1.765</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1">
-        <v>3.569</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1">
-        <v>3.974</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1">
-        <v>1.937</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1">
-        <v>1.665</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1">
-        <v>1.741</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1">
-        <v>1.914</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1">
-        <v>2.059</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1">
-        <v>1.824</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1">
-        <v>1.813</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1">
-        <v>1.708</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1">
-        <v>1.966</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D324" s="1"/>
-      <c r="E324" s="1">
-        <v>1.833</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D325" s="1"/>
-      <c r="E325" s="1">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D326" s="1"/>
-      <c r="E326" s="1">
-        <v>1.627</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D327" s="1"/>
-      <c r="E327" s="1">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D328" s="1"/>
-      <c r="E328" s="1">
-        <v>1.686</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1">
-        <v>1.892</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D330" s="1"/>
-      <c r="E330" s="1">
-        <v>1.433</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D331" s="1"/>
-      <c r="E331" s="1">
-        <v>1.755</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D332" s="1"/>
-      <c r="E332" s="1">
-        <v>2.417</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1">
-        <v>1.887</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1">
-        <v>1.789</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1">
-        <v>1.784</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1">
-        <v>2.045</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1">
-        <v>1.753</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1">
-        <v>1.791</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1">
-        <v>1.784</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1">
-        <v>1.864</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D342" s="1"/>
-      <c r="E342" s="1">
-        <v>2.045</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1">
-        <v>2.039</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1">
-        <v>3.783</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D345" s="1"/>
-      <c r="E345" s="1">
-        <v>1.368</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1">
-        <v>3.853</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1">
-        <v>1.884</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D348" s="1"/>
-      <c r="E348" s="1">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1">
-        <v>1.459</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D350" s="1"/>
-      <c r="E350" s="1">
-        <v>3.772</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D351" s="1"/>
-      <c r="E351" s="1">
-        <v>1.957</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="A352" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D352" s="1"/>
-      <c r="E352" s="1">
-        <v>2.018</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D353" s="1"/>
-      <c r="E353" s="1">
-        <v>2.006</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D354" s="1"/>
-      <c r="E354" s="1">
+    <row r="352" s="2" customFormat="1" spans="1:5">
+      <c r="A352" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4">
         <v>1.787</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D355" s="1"/>
-      <c r="E355" s="1">
+    <row r="353" s="2" customFormat="1" spans="1:5">
+      <c r="A353" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4">
         <v>4.101</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
-      <c r="A356" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D356" s="1"/>
-      <c r="E356" s="1">
+    <row r="354" s="2" customFormat="1" spans="1:5">
+      <c r="A354" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4">
         <v>2.058</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
-      <c r="A357" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D357" s="1"/>
-      <c r="E357" s="1">
+    <row r="355" s="2" customFormat="1" spans="1:5">
+      <c r="A355" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4">
         <v>1.904</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D358" s="1"/>
-      <c r="E358" s="1">
+    <row r="356" s="2" customFormat="1" spans="1:5">
+      <c r="A356" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4">
         <v>2.295</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
-      <c r="A359" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D359" s="1"/>
-      <c r="E359" s="1">
+    <row r="357" s="2" customFormat="1" spans="1:5">
+      <c r="A357" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4">
         <v>1.661</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
-      <c r="A360" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1">
+    <row r="358" s="2" customFormat="1" spans="1:5">
+      <c r="A358" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4">
         <v>2.133</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="A361" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1">
+    <row r="359" s="2" customFormat="1" spans="1:5">
+      <c r="A359" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4">
         <v>1.918</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1">
+    <row r="360" s="2" customFormat="1" spans="1:5">
+      <c r="A360" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4">
         <v>1.712</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D363" s="1"/>
-      <c r="E363" s="1">
+    <row r="361" s="2" customFormat="1" spans="1:5">
+      <c r="A361" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4">
         <v>1.965</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
-      <c r="A364" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1">
+    <row r="362" s="2" customFormat="1" spans="1:5">
+      <c r="A362" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4">
         <v>1.893</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1">
+    <row r="363" s="2" customFormat="1" spans="1:5">
+      <c r="A363" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4">
         <v>1.822</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1">
+    <row r="364" s="2" customFormat="1" spans="1:5">
+      <c r="A364" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4">
         <v>2.088</v>
       </c>
     </row>
@@ -7896,8 +7861,8 @@
   <sheetPr/>
   <dimension ref="A2:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
